--- a/Data/Gerrymon's Pornographic Style - 3273776910/3273776910_240728_00.xlsx
+++ b/Data/Gerrymon's Pornographic Style - 3273776910/3273776910_240728_00.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bjmi0\Desktop\림월드 번역\Gerrymon's Pornographic Style - 3273776910\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stone\Desktop\새 폴더 (2)\RimworldExtractor 0.9.1\새 폴더 (2)\Gerrymon's Pornographic Style - 3273776910\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A84AD79-F1AF-4BA9-9D14-6423AF07293B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8576799A-946C-4435-A003-DFA5F40FDA9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main_240728" sheetId="1" r:id="rId1"/>
@@ -19,44 +19,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>bjmi0</author>
-  </authors>
-  <commentList>
-    <comment ref="E14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-12-03 이전의 원문: 'Pornographic'</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-12-03에 새로 추가된 노드들 (3개)</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="58">
   <si>
     <t>Class+Node [(Identifier (Key)]</t>
   </si>
@@ -112,30 +76,18 @@
     <t>Porn_Slab_Broad.description</t>
   </si>
   <si>
+    <t>ThingDef+GM_RelicAncientMagazine.label</t>
+  </si>
+  <si>
     <t>GM_RelicAncientMagazine.label</t>
   </si>
   <si>
-    <t>ThingDef+GM_RelicAncientMagazine.label</t>
-  </si>
-  <si>
     <t>ancient magazine</t>
   </si>
   <si>
     <t>ThingDef+GM_RelicButtplug.label</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>고대 잡지</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>GM_RelicButtplug.label</t>
   </si>
   <si>
@@ -145,18 +97,6 @@
     <t>ThingDef+GM_RelicFluidBowl.label</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>사용한 애널 플러그</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>GM_RelicFluidBowl.label</t>
   </si>
   <si>
@@ -166,18 +106,6 @@
     <t>ThingDef+GM_RelicFluidVial.label</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>체액을 담은 그릇</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>GM_RelicFluidVial.label</t>
   </si>
   <si>
@@ -187,18 +115,6 @@
     <t>ThingDef+GM_RelicGenitalPiercing.label</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>체액을 담은 병</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>GM_RelicGenitalPiercing.label</t>
   </si>
   <si>
@@ -208,18 +124,6 @@
     <t>ThingDef+GM_RelicIdolFertility.label</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>성기 피어싱</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>GM_RelicIdolFertility.label</t>
   </si>
   <si>
@@ -229,18 +133,6 @@
     <t>ThingDef+GM_RelicIdolLewd.label</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>다산 우상</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>GM_RelicIdolLewd.label</t>
   </si>
   <si>
@@ -250,18 +142,6 @@
     <t>ThingDef+GM_RelicPhallus.label</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>음란 우상</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>GM_RelicPhallus.label</t>
   </si>
   <si>
@@ -271,98 +151,68 @@
     <t>StyleCategoryDef+GM_PornStyle.label</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>남근</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>StyleCategoryDef</t>
   </si>
   <si>
     <t>GM_PornStyle.label</t>
   </si>
   <si>
-    <t>ThingStyleDef+Porn_ShirtBasic.overrideLabel</t>
-  </si>
-  <si>
-    <t>Lascivian</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>포르노그래피</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>ThingStyleDef</t>
-  </si>
-  <si>
-    <t>Porn_ShirtBasic.overrideLabel</t>
-  </si>
-  <si>
-    <t>bra</t>
-  </si>
-  <si>
-    <t>ThingStyleDef+Porn_Robe.overrideLabel</t>
-  </si>
-  <si>
-    <t>Porn_Robe.overrideLabel</t>
-  </si>
-  <si>
-    <t>bath robe</t>
-  </si>
-  <si>
-    <t>ThingStyleDef+Porn_Burka.overrideLabel</t>
-  </si>
-  <si>
-    <t>Porn_Burka.overrideLabel</t>
-  </si>
-  <si>
-    <t>nun habit</t>
-  </si>
-  <si>
-    <t>브래지어</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>목욕 가운</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>수녀 습관</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>포르노그래피 석판 (중형)</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>포르노그래피 석판 (대형)</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>바닥을 장식하기 위한 포르노그래피 양식의 석재 부조입니다.</t>
-    <phoneticPr fontId="0" type="noConversion"/>
+    <t>Pornographic</t>
+  </si>
+  <si>
+    <t>고대 잡지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>체액을 담은 그릇</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>체액을 담은 병</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>성기 피어싱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>다산 우상</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>음란 우상</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>남근</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>포르노그래피 목판 (중형)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>포르노그래피</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>포르노그래피 목판 (대형)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>바닥을 장식하기 위한 포르노그래피 양식의 목재 부조입니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용한 애널 플러그</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -381,29 +231,13 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFA500"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF87CEEB"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -418,11 +252,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -724,11 +556,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -777,7 +609,7 @@
         <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
@@ -794,7 +626,7 @@
         <v>12</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
@@ -811,7 +643,7 @@
         <v>15</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
@@ -828,24 +660,24 @@
         <v>12</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
@@ -856,188 +688,136 @@
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="F7" s="1" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="E8" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="F9" s="1" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A16" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A17" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A18" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Data/Gerrymon's Pornographic Style - 3273776910/3273776910_240728_00.xlsx
+++ b/Data/Gerrymon's Pornographic Style - 3273776910/3273776910_240728_00.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stone\Desktop\새 폴더 (2)\RimworldExtractor 0.9.1\새 폴더 (2)\Gerrymon's Pornographic Style - 3273776910\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bjmi0\Desktop\림월드 번역\Gerrymon's Pornographic Style - 3273776910\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8576799A-946C-4435-A003-DFA5F40FDA9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A84AD79-F1AF-4BA9-9D14-6423AF07293B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main_240728" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,44 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>bjmi0</author>
+  </authors>
+  <commentList>
+    <comment ref="E14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2024-12-03 이전의 원문: 'Pornographic'</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2024-12-03에 새로 추가된 노드들 (3개)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="71">
   <si>
     <t>Class+Node [(Identifier (Key)]</t>
   </si>
@@ -76,18 +112,30 @@
     <t>Porn_Slab_Broad.description</t>
   </si>
   <si>
+    <t>GM_RelicAncientMagazine.label</t>
+  </si>
+  <si>
     <t>ThingDef+GM_RelicAncientMagazine.label</t>
   </si>
   <si>
-    <t>GM_RelicAncientMagazine.label</t>
-  </si>
-  <si>
     <t>ancient magazine</t>
   </si>
   <si>
     <t>ThingDef+GM_RelicButtplug.label</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>고대 잡지</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>GM_RelicButtplug.label</t>
   </si>
   <si>
@@ -97,6 +145,18 @@
     <t>ThingDef+GM_RelicFluidBowl.label</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>사용한 애널 플러그</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>GM_RelicFluidBowl.label</t>
   </si>
   <si>
@@ -106,6 +166,18 @@
     <t>ThingDef+GM_RelicFluidVial.label</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>체액을 담은 그릇</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>GM_RelicFluidVial.label</t>
   </si>
   <si>
@@ -115,6 +187,18 @@
     <t>ThingDef+GM_RelicGenitalPiercing.label</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>체액을 담은 병</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>GM_RelicGenitalPiercing.label</t>
   </si>
   <si>
@@ -124,6 +208,18 @@
     <t>ThingDef+GM_RelicIdolFertility.label</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>성기 피어싱</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>GM_RelicIdolFertility.label</t>
   </si>
   <si>
@@ -133,6 +229,18 @@
     <t>ThingDef+GM_RelicIdolLewd.label</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>다산 우상</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>GM_RelicIdolLewd.label</t>
   </si>
   <si>
@@ -142,6 +250,18 @@
     <t>ThingDef+GM_RelicPhallus.label</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>음란 우상</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>GM_RelicPhallus.label</t>
   </si>
   <si>
@@ -151,68 +271,98 @@
     <t>StyleCategoryDef+GM_PornStyle.label</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>남근</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>StyleCategoryDef</t>
   </si>
   <si>
     <t>GM_PornStyle.label</t>
   </si>
   <si>
-    <t>Pornographic</t>
-  </si>
-  <si>
-    <t>고대 잡지</t>
+    <t>ThingStyleDef+Porn_ShirtBasic.overrideLabel</t>
+  </si>
+  <si>
+    <t>Lascivian</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>포르노그래피</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>ThingStyleDef</t>
+  </si>
+  <si>
+    <t>Porn_ShirtBasic.overrideLabel</t>
+  </si>
+  <si>
+    <t>bra</t>
+  </si>
+  <si>
+    <t>ThingStyleDef+Porn_Robe.overrideLabel</t>
+  </si>
+  <si>
+    <t>Porn_Robe.overrideLabel</t>
+  </si>
+  <si>
+    <t>bath robe</t>
+  </si>
+  <si>
+    <t>ThingStyleDef+Porn_Burka.overrideLabel</t>
+  </si>
+  <si>
+    <t>Porn_Burka.overrideLabel</t>
+  </si>
+  <si>
+    <t>nun habit</t>
+  </si>
+  <si>
+    <t>브래지어</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>체액을 담은 그릇</t>
+    <t>목욕 가운</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>체액을 담은 병</t>
+    <t>수녀 습관</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>성기 피어싱</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>다산 우상</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>음란 우상</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>남근</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>포르노그래피 목판 (중형)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>포르노그래피</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>포르노그래피 목판 (대형)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>바닥을 장식하기 위한 포르노그래피 양식의 목재 부조입니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용한 애널 플러그</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>포르노그래피 석판 (중형)</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>포르노그래피 석판 (대형)</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>바닥을 장식하기 위한 포르노그래피 양식의 석재 부조입니다.</t>
+    <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -231,13 +381,29 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFA500"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF87CEEB"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -252,9 +418,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -556,11 +724,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -609,7 +777,7 @@
         <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
@@ -626,7 +794,7 @@
         <v>12</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
@@ -643,7 +811,7 @@
         <v>15</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
@@ -660,24 +828,24 @@
         <v>12</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
@@ -688,136 +856,188 @@
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>